--- a/dados/dados.xlsx
+++ b/dados/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\geocoords\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E3B0D4-5944-4455-9459-1ED1EAF9CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2948C-6EE7-4486-A369-A922E62D6644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCCEC44-D8A3-42E5-B4B5-2BCC45D9A1AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>BELÉM</t>
   </si>
@@ -58,6 +58,78 @@
   </si>
   <si>
     <t>SÃO PAULO - SP</t>
+  </si>
+  <si>
+    <t>MANAUS</t>
+  </si>
+  <si>
+    <t>MANAUS - AMAZONAS</t>
+  </si>
+  <si>
+    <t>CURITIBA</t>
+  </si>
+  <si>
+    <t>CURITIBA - PARANÁ</t>
+  </si>
+  <si>
+    <t>GOIÂNIA</t>
+  </si>
+  <si>
+    <t>GOIÂNIA - GOIÁS</t>
+  </si>
+  <si>
+    <t>FORTALEZA</t>
+  </si>
+  <si>
+    <t>FORTALEZA - CEARÁ</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO - RJ</t>
+  </si>
+  <si>
+    <t>PORTO VELHO</t>
+  </si>
+  <si>
+    <t>PORTO VELHO - RONDÔNIA</t>
+  </si>
+  <si>
+    <t>RECIFE</t>
+  </si>
+  <si>
+    <t>RECIFE - PERNAMBUCO</t>
+  </si>
+  <si>
+    <t>TERESINA</t>
+  </si>
+  <si>
+    <t>TERESINA - PIAUÍ</t>
+  </si>
+  <si>
+    <t>MACEIÓ</t>
+  </si>
+  <si>
+    <t>MACEIÓ - ALAGOAS</t>
+  </si>
+  <si>
+    <t>JOÃO PESSOA</t>
+  </si>
+  <si>
+    <t>JOÃO PESSOA - PARAÍBA</t>
+  </si>
+  <si>
+    <t>CAMPO GRANDE</t>
+  </si>
+  <si>
+    <t>CAMPO GRANDE - MS</t>
+  </si>
+  <si>
+    <t>FLORIANÓPOLIS</t>
+  </si>
+  <si>
+    <t>FLORIANÓPOLIS - SC</t>
   </si>
 </sst>
 </file>
@@ -468,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80CF6F3-E155-49E5-81F7-8D1BDFC812E6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +623,210 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2111300</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-3.1190000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-60.021000000000001</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4106902</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-25.4284</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-49.273299999999999</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5208707</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-16.686900000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-49.264800000000001</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2304400</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-3.7172000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-38.543300000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>3304557</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-22.9068</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-43.172899999999998</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1302603</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-8.7612000000000005</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-63.9039</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2611606</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-8.0475999999999992</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-34.877000000000002</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2211001</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-5.0910000000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-42.802999999999997</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2704302</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-9.6498000000000008</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-35.7089</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2507507</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-7.1153000000000004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-34.860999999999997</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>5002704</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-20.4697</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-54.620100000000001</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>4205407</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-27.595400000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-48.548000000000002</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
